--- a/src/source_data/pressure_evolution.xlsx
+++ b/src/source_data/pressure_evolution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\LOCASGUI_vypocty\Petr-prstenec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\PycharmProjects\locas\src\source_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE963E8-43D4-4F31-806B-467E5ACB862C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1C1C18-7AF8-47EE-9292-876B48639BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5700" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tlakMPa" sheetId="1" r:id="rId1"/>
@@ -370,7 +370,7 @@
   <dimension ref="A1:B8135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="F1:H22"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -380,7 +380,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
